--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>523.0380759999999</v>
+        <v>0.017234</v>
       </c>
       <c r="H2">
-        <v>1569.114228</v>
+        <v>0.051702</v>
       </c>
       <c r="I2">
-        <v>0.9706650893210215</v>
+        <v>0.001089091024602478</v>
       </c>
       <c r="J2">
-        <v>0.9706650893210214</v>
+        <v>0.001089091024602478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N2">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q2">
-        <v>214245.1046879114</v>
+        <v>9.654831146809332</v>
       </c>
       <c r="R2">
-        <v>1928205.942191203</v>
+        <v>86.893480321284</v>
       </c>
       <c r="S2">
-        <v>0.6051248015641634</v>
+        <v>0.0007554310378980867</v>
       </c>
       <c r="T2">
-        <v>0.6051248015641633</v>
+        <v>0.0007554310378980868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>523.0380759999999</v>
+        <v>0.017234</v>
       </c>
       <c r="H3">
-        <v>1569.114228</v>
+        <v>0.051702</v>
       </c>
       <c r="I3">
-        <v>0.9706650893210215</v>
+        <v>0.001089091024602478</v>
       </c>
       <c r="J3">
-        <v>0.9706650893210214</v>
+        <v>0.001089091024602478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q3">
-        <v>29549.23695024118</v>
+        <v>0.9736414478559999</v>
       </c>
       <c r="R3">
-        <v>265943.1325521707</v>
+        <v>8.762773030704</v>
       </c>
       <c r="S3">
-        <v>0.08346037204413219</v>
+        <v>7.618144308381028E-05</v>
       </c>
       <c r="T3">
-        <v>0.08346037204413218</v>
+        <v>7.618144308381028E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>523.0380759999999</v>
+        <v>0.017234</v>
       </c>
       <c r="H4">
-        <v>1569.114228</v>
+        <v>0.051702</v>
       </c>
       <c r="I4">
-        <v>0.9706650893210215</v>
+        <v>0.001089091024602478</v>
       </c>
       <c r="J4">
-        <v>0.9706650893210214</v>
+        <v>0.001089091024602478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P4">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q4">
-        <v>99870.70587094782</v>
+        <v>3.290719784958667</v>
       </c>
       <c r="R4">
-        <v>898836.3528385303</v>
+        <v>29.616478064628</v>
       </c>
       <c r="S4">
-        <v>0.2820799157127261</v>
+        <v>0.0002574785436205813</v>
       </c>
       <c r="T4">
-        <v>0.2820799157127259</v>
+        <v>0.0002574785436205813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.074094</v>
       </c>
       <c r="I5">
-        <v>0.02912036538949551</v>
+        <v>0.991605223525074</v>
       </c>
       <c r="J5">
-        <v>0.0291203653894955</v>
+        <v>0.991605223525074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N5">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q5">
-        <v>6427.444233918822</v>
+        <v>8790.616010193617</v>
       </c>
       <c r="R5">
-        <v>57846.9981052694</v>
+        <v>79115.54409174256</v>
       </c>
       <c r="S5">
-        <v>0.01815400133543546</v>
+        <v>0.6878115293128331</v>
       </c>
       <c r="T5">
-        <v>0.01815400133543545</v>
+        <v>0.6878115293128332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.074094</v>
       </c>
       <c r="I6">
-        <v>0.02912036538949551</v>
+        <v>0.991605223525074</v>
       </c>
       <c r="J6">
-        <v>0.0291203653894955</v>
+        <v>0.991605223525074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q6">
-        <v>886.4896723273653</v>
+        <v>886.4896723273654</v>
       </c>
       <c r="R6">
-        <v>7978.407050946287</v>
+        <v>7978.407050946289</v>
       </c>
       <c r="S6">
-        <v>0.002503846647218376</v>
+        <v>0.06936235373453513</v>
       </c>
       <c r="T6">
-        <v>0.002503846647218376</v>
+        <v>0.06936235373453513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.074094</v>
       </c>
       <c r="I7">
-        <v>0.02912036538949551</v>
+        <v>0.991605223525074</v>
       </c>
       <c r="J7">
-        <v>0.0291203653894955</v>
+        <v>0.991605223525074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P7">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q7">
-        <v>2996.163639410546</v>
+        <v>2996.163639410547</v>
       </c>
       <c r="R7">
-        <v>26965.47275469491</v>
+        <v>26965.47275469492</v>
       </c>
       <c r="S7">
-        <v>0.008462517406841679</v>
+        <v>0.2344313404777058</v>
       </c>
       <c r="T7">
-        <v>0.008462517406841676</v>
+        <v>0.2344313404777058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1156066666666666</v>
+        <v>0.1156066666666667</v>
       </c>
       <c r="H8">
         <v>0.34682</v>
       </c>
       <c r="I8">
-        <v>0.0002145452894831036</v>
+        <v>0.007305685450323614</v>
       </c>
       <c r="J8">
-        <v>0.0002145452894831036</v>
+        <v>0.007305685450323614</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N8">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q8">
-        <v>47.35441555620222</v>
+        <v>64.76516456493778</v>
       </c>
       <c r="R8">
-        <v>426.18974000582</v>
+        <v>582.88648108444</v>
       </c>
       <c r="S8">
-        <v>0.0001337502266778777</v>
+        <v>0.005067475002201355</v>
       </c>
       <c r="T8">
-        <v>0.0001337502266778777</v>
+        <v>0.005067475002201355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1156066666666666</v>
+        <v>0.1156066666666667</v>
       </c>
       <c r="H9">
         <v>0.34682</v>
       </c>
       <c r="I9">
-        <v>0.0002145452894831036</v>
+        <v>0.007305685450323614</v>
       </c>
       <c r="J9">
-        <v>0.0002145452894831036</v>
+        <v>0.007305685450323614</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q9">
-        <v>6.531243026293333</v>
+        <v>6.531243026293334</v>
       </c>
       <c r="R9">
-        <v>58.78118723663999</v>
+        <v>58.78118723664</v>
       </c>
       <c r="S9">
-        <v>1.844717593902662E-05</v>
+        <v>0.0005110295170462861</v>
       </c>
       <c r="T9">
-        <v>1.844717593902661E-05</v>
+        <v>0.000511029517046286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1156066666666666</v>
+        <v>0.1156066666666667</v>
       </c>
       <c r="H10">
         <v>0.34682</v>
       </c>
       <c r="I10">
-        <v>0.0002145452894831036</v>
+        <v>0.007305685450323614</v>
       </c>
       <c r="J10">
-        <v>0.0002145452894831036</v>
+        <v>0.007305685450323614</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P10">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q10">
         <v>22.07433824260889</v>
@@ -1066,10 +1066,10 @@
         <v>198.66904418348</v>
       </c>
       <c r="S10">
-        <v>6.23478868661993E-05</v>
+        <v>0.001727180931075974</v>
       </c>
       <c r="T10">
-        <v>6.234788686619927E-05</v>
+        <v>0.001727180931075974</v>
       </c>
     </row>
   </sheetData>
